--- a/Teknik Informatika_Aris Setyawan_2021_2022 - Genap_6D.xlsx
+++ b/Teknik Informatika_Aris Setyawan_2021_2022 - Genap_6D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -130,6 +130,9 @@
     <t xml:space="preserve">GUSTI ROBBANI</t>
   </si>
   <si>
+    <t xml:space="preserve">BWS</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUHAMMAD AFFRY</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">AGUNG ISWANTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ga ada kartu</t>
   </si>
   <si>
     <t xml:space="preserve">DIMAS ILHAM MARDIYANTO</t>
@@ -244,10 +250,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,6 +260,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -339,8 +345,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -386,101 +392,101 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>19090094</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>19090069</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>19090017</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>19098001</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -502,14 +508,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>19090128</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -530,47 +536,47 @@
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4" t="n">
         <v>19090125</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="G7" s="4" t="n">
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <v>19090081</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -591,47 +597,47 @@
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>19090062</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="2" t="n">
         <v>19090072</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -653,43 +659,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
+    <row r="11" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>19090082</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="G11" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
         <v>19090083</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -711,101 +717,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>19090032</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>19090022</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>20092002</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="2" t="n">
         <v>19090130</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="1" t="n">
@@ -827,14 +833,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="2" t="n">
         <v>19090133</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="1" t="n">
@@ -856,37 +862,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>19090136</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -895,120 +901,120 @@
       <c r="C19" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="n">
         <v>-1</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="G19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="I19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>19090031</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="n">
+      <c r="G20" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>19090060</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>19090016</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="2" t="n">
         <v>19090122</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="1" t="n">
@@ -1030,14 +1036,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="2" t="n">
         <v>19090118</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -1059,235 +1065,244 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>19090105</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>19090110</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>10</v>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>18090026</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>19090040</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>19090040</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>19090003</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>18090122</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="G30" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H30" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="I30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>18090139</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="n">
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="n">
+      <c r="G31" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>19090146</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
